--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.998221666666667</v>
+        <v>16.19105733333333</v>
       </c>
       <c r="H2">
-        <v>20.994665</v>
+        <v>48.573172</v>
       </c>
       <c r="I2">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="J2">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>1074.430095564175</v>
+        <v>2359.049110407361</v>
       </c>
       <c r="R2">
-        <v>9669.870860077581</v>
+        <v>21231.44199366625</v>
       </c>
       <c r="S2">
-        <v>0.005772214281339057</v>
+        <v>0.01151874252942787</v>
       </c>
       <c r="T2">
-        <v>0.005772214281339057</v>
+        <v>0.01151874252942787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.998221666666667</v>
+        <v>16.19105733333333</v>
       </c>
       <c r="H3">
-        <v>20.994665</v>
+        <v>48.573172</v>
       </c>
       <c r="I3">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="J3">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>1181.297736528758</v>
+        <v>2733.04566372562</v>
       </c>
       <c r="R3">
-        <v>10631.67962875882</v>
+        <v>24597.41097353058</v>
       </c>
       <c r="S3">
-        <v>0.006346344628148514</v>
+        <v>0.01334488933814037</v>
       </c>
       <c r="T3">
-        <v>0.006346344628148513</v>
+        <v>0.01334488933814037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.998221666666667</v>
+        <v>16.19105733333333</v>
       </c>
       <c r="H4">
-        <v>20.994665</v>
+        <v>48.573172</v>
       </c>
       <c r="I4">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="J4">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>654.7723253798483</v>
+        <v>2074.497916107534</v>
       </c>
       <c r="R4">
-        <v>5892.950928418635</v>
+        <v>18670.48124496781</v>
       </c>
       <c r="S4">
-        <v>0.00351766595443193</v>
+        <v>0.01012933866788006</v>
       </c>
       <c r="T4">
-        <v>0.003517665954431929</v>
+        <v>0.01012933866788006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.998221666666667</v>
+        <v>16.19105733333333</v>
       </c>
       <c r="H5">
-        <v>20.994665</v>
+        <v>48.573172</v>
       </c>
       <c r="I5">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="J5">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>476.5111760416723</v>
+        <v>1064.741400390863</v>
       </c>
       <c r="R5">
-        <v>4288.600584375051</v>
+        <v>9582.672603517763</v>
       </c>
       <c r="S5">
-        <v>0.002559984709029516</v>
+        <v>0.005198909169553906</v>
       </c>
       <c r="T5">
-        <v>0.002559984709029516</v>
+        <v>0.005198909169553905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>767.098084</v>
       </c>
       <c r="I6">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738135</v>
       </c>
       <c r="J6">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738134</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>39257.27167826759</v>
+        <v>37255.58735705774</v>
       </c>
       <c r="R6">
-        <v>353315.4451044083</v>
+        <v>335300.2862135197</v>
       </c>
       <c r="S6">
-        <v>0.2109037946379534</v>
+        <v>0.1819112271361119</v>
       </c>
       <c r="T6">
-        <v>0.2109037946379534</v>
+        <v>0.1819112271361119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>767.098084</v>
       </c>
       <c r="I7">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738135</v>
       </c>
       <c r="J7">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738134</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>43161.97616512323</v>
@@ -883,10 +883,10 @@
         <v>388457.7854861091</v>
       </c>
       <c r="S7">
-        <v>0.2318812329063797</v>
+        <v>0.2107508861574761</v>
       </c>
       <c r="T7">
-        <v>0.2318812329063796</v>
+        <v>0.2107508861574761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>767.098084</v>
       </c>
       <c r="I8">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738135</v>
       </c>
       <c r="J8">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>23923.91573073951</v>
+        <v>32761.77591836255</v>
       </c>
       <c r="R8">
-        <v>215315.2415766556</v>
+        <v>294855.983265263</v>
       </c>
       <c r="S8">
-        <v>0.1285276432749351</v>
+        <v>0.1599688874409501</v>
       </c>
       <c r="T8">
-        <v>0.128527643274935</v>
+        <v>0.15996888744095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>767.098084</v>
       </c>
       <c r="I9">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738135</v>
       </c>
       <c r="J9">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738134</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>17410.6521893135</v>
+        <v>16815.06590089088</v>
       </c>
       <c r="R9">
-        <v>156695.8697038215</v>
+        <v>151335.5931080179</v>
       </c>
       <c r="S9">
-        <v>0.09353611335860033</v>
+        <v>0.08210444363927545</v>
       </c>
       <c r="T9">
-        <v>0.09353611335860033</v>
+        <v>0.08210444363927544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.18048166666667</v>
+        <v>57.51647566666667</v>
       </c>
       <c r="H10">
-        <v>111.541445</v>
+        <v>172.549427</v>
       </c>
       <c r="I10">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="J10">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>5708.282814263348</v>
+        <v>8380.193335235548</v>
       </c>
       <c r="R10">
-        <v>51374.54532837014</v>
+        <v>75421.74001711993</v>
       </c>
       <c r="S10">
-        <v>0.03066689188849619</v>
+        <v>0.04091872820686509</v>
       </c>
       <c r="T10">
-        <v>0.03066689188849619</v>
+        <v>0.04091872820686508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.18048166666667</v>
+        <v>57.51647566666667</v>
       </c>
       <c r="H11">
-        <v>111.541445</v>
+        <v>172.549427</v>
       </c>
       <c r="I11">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="J11">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>6276.054250336785</v>
+        <v>9708.763990967904</v>
       </c>
       <c r="R11">
-        <v>56484.48825303106</v>
+        <v>87378.87591871113</v>
       </c>
       <c r="S11">
-        <v>0.03371715863490429</v>
+        <v>0.04740586035177052</v>
       </c>
       <c r="T11">
-        <v>0.03371715863490429</v>
+        <v>0.04740586035177051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.18048166666667</v>
+        <v>57.51647566666667</v>
       </c>
       <c r="H12">
-        <v>111.541445</v>
+        <v>172.549427</v>
       </c>
       <c r="I12">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="J12">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>3478.705248160828</v>
+        <v>7369.364857148905</v>
       </c>
       <c r="R12">
-        <v>31308.34723344745</v>
+        <v>66324.28371434013</v>
       </c>
       <c r="S12">
-        <v>0.01868882135459849</v>
+        <v>0.03598306454088788</v>
       </c>
       <c r="T12">
-        <v>0.01868882135459849</v>
+        <v>0.03598306454088787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.18048166666667</v>
+        <v>57.51647566666667</v>
       </c>
       <c r="H13">
-        <v>111.541445</v>
+        <v>172.549427</v>
       </c>
       <c r="I13">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="J13">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>2531.631018372406</v>
+        <v>3782.345500117244</v>
       </c>
       <c r="R13">
-        <v>22784.67916535165</v>
+        <v>34041.1095010552</v>
       </c>
       <c r="S13">
-        <v>0.01360080733000773</v>
+        <v>0.01846840058605957</v>
       </c>
       <c r="T13">
-        <v>0.01360080733000773</v>
+        <v>0.01846840058605957</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.71970766666668</v>
+        <v>73.43709933333334</v>
       </c>
       <c r="H14">
-        <v>254.159123</v>
+        <v>220.311298</v>
       </c>
       <c r="I14">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="J14">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>13006.9334668306</v>
+        <v>10699.84005902664</v>
       </c>
       <c r="R14">
-        <v>117062.4012014754</v>
+        <v>96298.56053123974</v>
       </c>
       <c r="S14">
-        <v>0.06987779607406025</v>
+        <v>0.05224507713817942</v>
       </c>
       <c r="T14">
-        <v>0.06987779607406025</v>
+        <v>0.05224507713817941</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.71970766666668</v>
+        <v>73.43709933333334</v>
       </c>
       <c r="H15">
-        <v>254.159123</v>
+        <v>220.311298</v>
       </c>
       <c r="I15">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="J15">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>14300.66146414026</v>
+        <v>12396.16053216913</v>
       </c>
       <c r="R15">
-        <v>128705.9531772623</v>
+        <v>111565.4447895222</v>
       </c>
       <c r="S15">
-        <v>0.0768281553883326</v>
+        <v>0.06052785458919721</v>
       </c>
       <c r="T15">
-        <v>0.07682815538833257</v>
+        <v>0.0605278545891972</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.71970766666668</v>
+        <v>73.43709933333334</v>
       </c>
       <c r="H16">
-        <v>254.159123</v>
+        <v>220.311298</v>
       </c>
       <c r="I16">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="J16">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>7926.602305071928</v>
+        <v>9409.213147454031</v>
       </c>
       <c r="R16">
-        <v>71339.42074564734</v>
+        <v>84682.91832708627</v>
       </c>
       <c r="S16">
-        <v>0.04258448010413014</v>
+        <v>0.04594321634589249</v>
       </c>
       <c r="T16">
-        <v>0.04258448010413013</v>
+        <v>0.04594321634589248</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.71970766666668</v>
+        <v>73.43709933333334</v>
       </c>
       <c r="H17">
-        <v>254.159123</v>
+        <v>220.311298</v>
       </c>
       <c r="I17">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="J17">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>5768.592287728814</v>
+        <v>4829.302890790181</v>
       </c>
       <c r="R17">
-        <v>51917.33058955932</v>
+        <v>43463.72601711162</v>
       </c>
       <c r="S17">
-        <v>0.03099089547465282</v>
+        <v>0.02358047416233231</v>
       </c>
       <c r="T17">
-        <v>0.03099089547465282</v>
+        <v>0.0235804741623323</v>
       </c>
     </row>
   </sheetData>
